--- a/Documentos/SA-DocumentoDeOrganizacaoDeRequisitos.xlsx
+++ b/Documentos/SA-DocumentoDeOrganizacaoDeRequisitos.xlsx
@@ -13,18 +13,87 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
   <si>
+    <t>Manutenção de Cadastros</t>
+  </si>
+  <si>
+    <t>Iteração</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Requisitos</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>RF1, RF2, RF3, RF4</t>
+  </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>RF5, RF6, RF7, RF8</t>
+  </si>
+  <si>
+    <t>Aluno</t>
+  </si>
+  <si>
+    <t>RF9, RF10, RF11, RF12</t>
+  </si>
+  <si>
+    <t>UF</t>
+  </si>
+  <si>
+    <t>RF13, RF14, RF15, RF16</t>
+  </si>
+  <si>
+    <t>Cidade</t>
+  </si>
+  <si>
+    <t>RF17, RF18, RF19, RF20</t>
+  </si>
+  <si>
+    <t>Bairro</t>
+  </si>
+  <si>
+    <t>RF21, RF22, RF23, RF24</t>
+  </si>
+  <si>
+    <t>Curso</t>
+  </si>
+  <si>
+    <t>RF25, RF26, RF27, RF28</t>
+  </si>
+  <si>
+    <t>Disciplina</t>
+  </si>
+  <si>
+    <t>RF29, RF30, RF31, RF32</t>
+  </si>
+  <si>
+    <t>Período Letivo</t>
+  </si>
+  <si>
+    <t>RF33, RF34, RF35, RF36</t>
+  </si>
+  <si>
+    <t>Turma</t>
+  </si>
+  <si>
+    <t>RF37, RF38, RF39, RF40</t>
+  </si>
+  <si>
+    <t>Atividade Avaliativa</t>
+  </si>
+  <si>
+    <t>RF41, RF42, RF43, RF44</t>
+  </si>
+  <si>
     <t>Processos de Negócios</t>
   </si>
   <si>
-    <t>Iteração</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>Requisitos</t>
-  </si>
-  <si>
     <t>Registro de Presença</t>
   </si>
   <si>
@@ -59,75 +128,6 @@
   </si>
   <si>
     <t>RF46</t>
-  </si>
-  <si>
-    <t>Manutenção de Cadastros</t>
-  </si>
-  <si>
-    <t>Administrador</t>
-  </si>
-  <si>
-    <t>RF1, RF2, RF3, RF4</t>
-  </si>
-  <si>
-    <t>Professor</t>
-  </si>
-  <si>
-    <t>RF5, RF6, RF7, RF8</t>
-  </si>
-  <si>
-    <t>Aluno</t>
-  </si>
-  <si>
-    <t>RF9, RF10, RF11, RF12</t>
-  </si>
-  <si>
-    <t>UF</t>
-  </si>
-  <si>
-    <t>RF13, RF14, RF15, RF16</t>
-  </si>
-  <si>
-    <t>Cidade</t>
-  </si>
-  <si>
-    <t>RF17, RF18, RF19, RF20</t>
-  </si>
-  <si>
-    <t>Bairro</t>
-  </si>
-  <si>
-    <t>RF21, RF22, RF23, RF24</t>
-  </si>
-  <si>
-    <t>Curso</t>
-  </si>
-  <si>
-    <t>RF25, RF26, RF27, RF28</t>
-  </si>
-  <si>
-    <t>Disciplina</t>
-  </si>
-  <si>
-    <t>RF29, RF30, RF31, RF32</t>
-  </si>
-  <si>
-    <t>Período Letivo</t>
-  </si>
-  <si>
-    <t>RF33, RF34, RF35, RF36</t>
-  </si>
-  <si>
-    <t>Turma</t>
-  </si>
-  <si>
-    <t>RF37, RF38, RF39, RF40</t>
-  </si>
-  <si>
-    <t>Atividade Avaliativa</t>
-  </si>
-  <si>
-    <t>RF41, RF42, RF43, RF44</t>
   </si>
   <si>
     <t>Relatórios / Listagens</t>
@@ -223,20 +223,20 @@
     </font>
     <font>
       <b/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font/>
-    <font>
-      <b/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -330,32 +330,32 @@
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf borderId="5" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,7 +629,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>1.0</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -641,167 +641,167 @@
     </row>
     <row r="7">
       <c r="A7" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="B7" s="9" t="s">
+        <v>1.0</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="B8" s="9" t="s">
+        <v>1.0</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="B16" s="12" t="s">
+        <v>2.0</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="8">
+      <c r="A20" s="6">
         <v>3.0</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="8">
+      <c r="A21" s="6">
         <v>3.0</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="2"/>
@@ -823,7 +823,7 @@
         <v>4.0</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>40</v>
@@ -834,7 +834,7 @@
         <v>4.0</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>41</v>
@@ -852,7 +852,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="8">
+      <c r="A27" s="6">
         <v>4.0</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -866,8 +866,8 @@
       <c r="A28" s="6">
         <v>4.0</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>23</v>
+      <c r="B28" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>46</v>
@@ -877,8 +877,8 @@
       <c r="A29" s="6">
         <v>4.0</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>25</v>
+      <c r="B29" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>47</v>
@@ -888,8 +888,8 @@
       <c r="A30" s="6">
         <v>4.0</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>27</v>
+      <c r="B30" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>48</v>
@@ -900,7 +900,7 @@
         <v>4.0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>49</v>
@@ -996,9 +996,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
